--- a/data/trans_orig/LAWTONB_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16726984-934C-42D1-A05F-911B6B9A3034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC76CA3-F50F-4766-88F3-94E95BBFB0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FA81CFE-E41B-498B-9B44-F772B3EC5FF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15BBD211-B421-40D7-BB70-3D3F66DD35DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>26,77%</t>
@@ -94,10 +94,10 @@
     <t>23,0%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>73,23%</t>
@@ -124,10 +124,10 @@
     <t>77,0%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,10 +139,10 @@
     <t>32,41%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>31,33%</t>
@@ -157,19 +157,19 @@
     <t>31,78%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>68,67%</t>
@@ -184,10 +184,10 @@
     <t>68,22%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,856 +196,832 @@
     <t>32,92%</t>
   </si>
   <si>
-    <t>25,8%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>72,73%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>26,79%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>73,21%</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A34C5E-5ECA-4F9D-8E60-3318D7780920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A32CA67-C86F-444A-87D3-50C4090D8990}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1814,7 +1790,7 @@
         <v>149</v>
       </c>
       <c r="N8" s="7">
-        <v>145868</v>
+        <v>145869</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1865,7 +1841,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1897,7 +1873,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -1906,13 +1882,13 @@
         <v>68544</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -1921,13 +1897,13 @@
         <v>116566</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1918,13 @@
         <v>97867</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -1957,13 +1933,13 @@
         <v>114136</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -1972,13 +1948,13 @@
         <v>212002</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,7 +2010,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2046,13 +2022,13 @@
         <v>21576</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -2061,13 +2037,13 @@
         <v>46464</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -2076,13 +2052,13 @@
         <v>68040</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2073,13 @@
         <v>82795</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -2112,13 +2088,13 @@
         <v>89386</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -2127,13 +2103,13 @@
         <v>172181</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2165,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2201,13 +2177,13 @@
         <v>28736</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -2216,13 +2192,13 @@
         <v>71992</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -2231,13 +2207,13 @@
         <v>100728</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2228,13 @@
         <v>108481</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2267,13 +2243,13 @@
         <v>136785</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>257</v>
@@ -2282,13 +2258,13 @@
         <v>245267</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2332,13 @@
         <v>132209</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -2371,13 +2347,13 @@
         <v>232744</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>356</v>
@@ -2386,13 +2362,13 @@
         <v>364953</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2383,13 @@
         <v>370257</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -2422,13 +2398,13 @@
         <v>444098</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>828</v>
@@ -2437,13 +2413,13 @@
         <v>814355</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,7 +2475,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5991973A-4E10-40A2-97F5-D2AB8CD817BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FFB2FF-B7FA-4BC2-843C-B05108F5CA2B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2537,7 +2513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2644,13 +2620,13 @@
         <v>5491</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2659,13 +2635,13 @@
         <v>8859</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2674,13 +2650,13 @@
         <v>14350</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2671,13 @@
         <v>15707</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -2710,13 +2686,13 @@
         <v>16335</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -2725,13 +2701,13 @@
         <v>32042</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2775,13 @@
         <v>28813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -2814,13 +2790,13 @@
         <v>53076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2829,13 +2805,13 @@
         <v>81889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2826,13 @@
         <v>89537</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2865,13 +2841,13 @@
         <v>88516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -2880,13 +2856,13 @@
         <v>178053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2930,13 @@
         <v>45656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -2969,13 +2945,13 @@
         <v>89489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -2984,13 +2960,13 @@
         <v>135145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2981,13 @@
         <v>109222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -3020,13 +2996,13 @@
         <v>101931</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>194</v>
@@ -3035,13 +3011,13 @@
         <v>211153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3073,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3085,13 @@
         <v>27940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3124,13 +3100,13 @@
         <v>52916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -3139,13 +3115,13 @@
         <v>80856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3136,13 @@
         <v>75658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -3175,13 +3151,13 @@
         <v>88103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -3190,13 +3166,13 @@
         <v>163761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,7 +3228,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3264,13 +3240,13 @@
         <v>42056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -3279,13 +3255,13 @@
         <v>82279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -3294,13 +3270,13 @@
         <v>124335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3291,13 @@
         <v>119557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3330,13 +3306,13 @@
         <v>161471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -3345,13 +3321,13 @@
         <v>281028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3395,13 @@
         <v>149957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -3434,13 +3410,13 @@
         <v>286619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>396</v>
@@ -3449,13 +3425,13 @@
         <v>436575</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3446,13 @@
         <v>409680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -3485,13 +3461,13 @@
         <v>456356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -3500,13 +3476,13 @@
         <v>866037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3538,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C6D1CF-D272-46E6-8177-C5A0E8E06BA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFA86-EB1E-4378-BC0F-75DC4F820B80}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,13 +3683,13 @@
         <v>7076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3722,13 +3698,13 @@
         <v>10171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3737,13 +3713,13 @@
         <v>17248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3734,13 @@
         <v>14612</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3773,13 +3749,13 @@
         <v>13268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -3788,13 +3764,13 @@
         <v>27879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3838,13 @@
         <v>20702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3877,13 +3853,13 @@
         <v>49966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -3892,13 +3868,13 @@
         <v>70668</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3889,13 @@
         <v>94344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -3928,13 +3904,13 @@
         <v>99985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>192</v>
@@ -3943,13 +3919,13 @@
         <v>194329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +3993,13 @@
         <v>40909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4032,13 +4008,13 @@
         <v>80165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4047,13 +4023,13 @@
         <v>121074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4044,13 @@
         <v>124032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -4083,13 +4059,13 @@
         <v>138998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -4098,13 +4074,13 @@
         <v>263030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,7 +4136,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4172,13 +4148,13 @@
         <v>26148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4187,13 +4163,13 @@
         <v>54264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -4202,13 +4178,13 @@
         <v>80412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4199,13 @@
         <v>88887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -4238,13 +4214,13 @@
         <v>88332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -4253,13 +4229,13 @@
         <v>177219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4291,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4327,13 +4303,13 @@
         <v>29508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -4342,13 +4318,13 @@
         <v>82938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4357,13 +4333,13 @@
         <v>112446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4354,13 @@
         <v>145110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -4393,13 +4369,13 @@
         <v>159843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>292</v>
@@ -4408,13 +4384,13 @@
         <v>304954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4458,13 @@
         <v>124343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -4497,13 +4473,13 @@
         <v>277505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -4512,13 +4488,13 @@
         <v>401848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4509,13 @@
         <v>466985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -4548,13 +4524,13 @@
         <v>500426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -4563,13 +4539,13 @@
         <v>967411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4601,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC76CA3-F50F-4766-88F3-94E95BBFB0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C693BB0-1306-45B1-A71D-165AA889E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15BBD211-B421-40D7-BB70-3D3F66DD35DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A69D9040-8322-4514-A968-17234C7DF410}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="338">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,28 +76,28 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,922 +106,952 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>23,45%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>72,14%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>26,79%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>73,21%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A32CA67-C86F-444A-87D3-50C4090D8990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69EF008-1495-42B0-9C68-3C2819FF93CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,7 +1820,7 @@
         <v>149</v>
       </c>
       <c r="N8" s="7">
-        <v>145869</v>
+        <v>145868</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1841,7 +1871,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1873,7 +1903,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -1882,13 +1912,13 @@
         <v>68544</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -1897,13 +1927,13 @@
         <v>116566</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1948,13 @@
         <v>97867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -1933,13 +1963,13 @@
         <v>114136</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -1948,13 +1978,13 @@
         <v>212002</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,7 +2040,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2022,13 +2052,13 @@
         <v>21576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -2037,13 +2067,13 @@
         <v>46464</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -2052,13 +2082,13 @@
         <v>68040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2103,13 @@
         <v>82795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -2088,13 +2118,13 @@
         <v>89386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -2103,13 +2133,13 @@
         <v>172181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2195,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2207,13 @@
         <v>28736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -2192,13 +2222,13 @@
         <v>71992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -2207,13 +2237,13 @@
         <v>100728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2258,13 @@
         <v>108481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2243,13 +2273,13 @@
         <v>136785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>257</v>
@@ -2258,13 +2288,13 @@
         <v>245267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2362,13 @@
         <v>132209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -2347,13 +2377,13 @@
         <v>232744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>356</v>
@@ -2362,13 +2392,13 @@
         <v>364953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2413,13 @@
         <v>370257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -2398,13 +2428,13 @@
         <v>444098</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>828</v>
@@ -2413,13 +2443,13 @@
         <v>814355</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2505,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FFB2FF-B7FA-4BC2-843C-B05108F5CA2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE33462-14DD-4E26-AE82-1D0F512AA339}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2513,7 +2543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2620,13 +2650,13 @@
         <v>5491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2635,13 +2665,13 @@
         <v>8859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2650,13 +2680,13 @@
         <v>14350</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2701,13 @@
         <v>15707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -2686,13 +2716,13 @@
         <v>16335</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -2701,13 +2731,13 @@
         <v>32042</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2805,13 @@
         <v>28813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -2790,13 +2820,13 @@
         <v>53076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2805,13 +2835,13 @@
         <v>81889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2856,13 @@
         <v>89537</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2841,13 +2871,13 @@
         <v>88516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -2856,13 +2886,13 @@
         <v>178053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2960,13 @@
         <v>45656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -2945,13 +2975,13 @@
         <v>89489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -2960,13 +2990,13 @@
         <v>135145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3011,13 @@
         <v>109222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -2996,13 +3026,13 @@
         <v>101931</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>194</v>
@@ -3011,13 +3041,13 @@
         <v>211153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3103,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3085,13 +3115,13 @@
         <v>27940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3100,13 +3130,13 @@
         <v>52916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -3115,13 +3145,13 @@
         <v>80856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3166,13 @@
         <v>75658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -3151,13 +3181,13 @@
         <v>88103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -3166,13 +3196,13 @@
         <v>163761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3258,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3240,13 +3270,13 @@
         <v>42056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -3255,13 +3285,13 @@
         <v>82279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -3270,13 +3300,13 @@
         <v>124335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3321,13 @@
         <v>119557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3306,13 +3336,13 @@
         <v>161471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -3321,13 +3351,13 @@
         <v>281028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3425,13 @@
         <v>149957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -3410,13 +3440,13 @@
         <v>286619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>396</v>
@@ -3425,13 +3455,13 @@
         <v>436575</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3476,13 @@
         <v>409680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -3461,13 +3491,13 @@
         <v>456356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -3476,13 +3506,13 @@
         <v>866037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3568,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFA86-EB1E-4378-BC0F-75DC4F820B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D46B7D-44CD-4843-94E2-35259E1C059C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3713,13 @@
         <v>7076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3698,13 +3728,13 @@
         <v>10171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3713,13 +3743,13 @@
         <v>17248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3764,13 @@
         <v>14612</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3749,13 +3779,13 @@
         <v>13268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -3764,13 +3794,13 @@
         <v>27879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3868,13 @@
         <v>20702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3853,13 +3883,13 @@
         <v>49966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -3868,13 +3898,13 @@
         <v>70668</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3919,13 @@
         <v>94344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -3904,28 +3934,28 @@
         <v>99985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>192</v>
       </c>
       <c r="N8" s="7">
-        <v>194329</v>
+        <v>194330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,7 +3997,7 @@
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3993,13 +4023,13 @@
         <v>40909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4008,13 +4038,13 @@
         <v>80165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4023,13 +4053,13 @@
         <v>121074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4074,13 @@
         <v>124032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -4059,13 +4089,13 @@
         <v>138998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -4074,13 +4104,13 @@
         <v>263030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4166,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4148,13 +4178,13 @@
         <v>26148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4163,13 +4193,13 @@
         <v>54264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -4178,13 +4208,13 @@
         <v>80412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4229,13 @@
         <v>88887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -4214,13 +4244,13 @@
         <v>88332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -4229,13 +4259,13 @@
         <v>177219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4321,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4303,13 +4333,13 @@
         <v>29508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -4318,13 +4348,13 @@
         <v>82938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4333,13 +4363,13 @@
         <v>112446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4384,13 @@
         <v>145110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -4369,13 +4399,13 @@
         <v>159843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>292</v>
@@ -4384,13 +4414,13 @@
         <v>304954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4488,13 @@
         <v>124343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -4473,13 +4503,13 @@
         <v>277505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -4488,13 +4518,13 @@
         <v>401848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4539,13 @@
         <v>466985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -4524,13 +4554,13 @@
         <v>500426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -4539,13 +4569,13 @@
         <v>967411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4631,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C693BB0-1306-45B1-A71D-165AA889E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7F6B05-DB76-4F48-B3B6-1BE792C288C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A69D9040-8322-4514-A968-17234C7DF410}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA2C5680-A211-4462-A96D-BAEF1BAABAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="338">
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,28 +76,28 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>32,41%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -196,55 +196,55 @@
     <t>32,92%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -253,10 +253,10 @@
     <t>20,67%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>34,2%</t>
@@ -265,793 +265,787 @@
     <t>26,64%</t>
   </si>
   <si>
-    <t>43,02%</t>
+    <t>42,64%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>74,61%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>12,19%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>87,81%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69EF008-1495-42B0-9C68-3C2819FF93CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B756A-F882-4C21-B0F7-4621D5637E9A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2526,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE33462-14DD-4E26-AE82-1D0F512AA339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6DE31B-DDD7-48DD-BF71-6F20FC61EC6E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,13 +3279,13 @@
         <v>82279</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -3300,13 +3294,13 @@
         <v>124335</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3315,13 @@
         <v>119557</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -3336,13 +3330,13 @@
         <v>161471</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -3351,13 +3345,13 @@
         <v>281028</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3419,13 @@
         <v>149957</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -3440,13 +3434,13 @@
         <v>286619</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>396</v>
@@ -3455,13 +3449,13 @@
         <v>436575</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3470,13 @@
         <v>409680</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -3589,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D46B7D-44CD-4843-94E2-35259E1C059C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E77197-C981-41C5-8371-7C1FFBB955BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3946,7 +3940,7 @@
         <v>192</v>
       </c>
       <c r="N8" s="7">
-        <v>194330</v>
+        <v>194329</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>265</v>
@@ -3997,7 +3991,7 @@
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4029,7 +4023,7 @@
         <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4038,13 +4032,13 @@
         <v>80165</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4053,13 +4047,13 @@
         <v>121074</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4068,13 @@
         <v>124032</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -4089,13 +4083,13 @@
         <v>138998</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -4104,13 +4098,13 @@
         <v>263030</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4172,13 @@
         <v>26148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4193,13 +4187,13 @@
         <v>54264</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -4208,13 +4202,13 @@
         <v>80412</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4223,7 @@
         <v>88887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>294</v>
@@ -4339,7 +4333,7 @@
         <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -4348,13 +4342,13 @@
         <v>82938</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4363,13 +4357,13 @@
         <v>112446</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4378,13 @@
         <v>145110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -4399,13 +4393,13 @@
         <v>159843</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>292</v>
@@ -4414,13 +4408,13 @@
         <v>304954</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4482,13 @@
         <v>124343</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -4503,13 +4497,13 @@
         <v>277505</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -4518,13 +4512,13 @@
         <v>401848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4533,13 @@
         <v>466985</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -4554,13 +4548,13 @@
         <v>500426</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -4569,13 +4563,13 @@
         <v>967411</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
